--- a/data_output/supply_analysis/market_groups.xlsx
+++ b/data_output/supply_analysis/market_groups.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,22 +384,10 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Воды минеральные.RData</t>
+          <t>Воды минеральные и питьевые.RData</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>Прочее, продовольственное</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Воды питьевые.RData</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>Прочее, продовольственное</t>
         </is>

--- a/data_output/supply_analysis/market_groups.xlsx
+++ b/data_output/supply_analysis/market_groups.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,24 +372,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Сигареты и папиросы.RData</t>
+          <t>Молоко и сливки.RData</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Прочее, непродовольственное</t>
+          <t>Молочная продукция</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Масло сливочное.RData</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Молочная продукция</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Сыры.RData</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Молочная продукция</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Творог.RData</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Молочная продукция</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Кисломолочные продукты.RData</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Молочная продукция</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Сухое молоко.RData</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Молочная продукция</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Сгущенное молоко.RData</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Молочная продукция</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Мороженое.RData</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Молочная продукция</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Воды минеральные и питьевые.RData</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Прочее, продовольственное</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Сигареты и папиросы.RData</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Прочее, непродовольственное</t>
         </is>
       </c>
     </row>

--- a/data_output/supply_analysis/market_groups.xlsx
+++ b/data_output/supply_analysis/market_groups.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Сухое молоко.RData</t>
+          <t>Сгущенное молоко.RData</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -444,7 +444,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Сгущенное молоко.RData</t>
+          <t>Сухое молоко.RData</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -473,17 +473,53 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Прочее, продовольственное</t>
+          <t>Напитки</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Пиво.RData</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Напитки</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Вина.RData</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Напитки</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Крепкий алкоголь.RData</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Напитки</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Сигареты и папиросы.RData</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Прочее, непродовольственное</t>
         </is>

--- a/data_output/supply_analysis/market_groups.xlsx
+++ b/data_output/supply_analysis/market_groups.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,11 @@
           <t>group</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>marking</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -380,6 +385,9 @@
           <t>Молочная продукция</t>
         </is>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -392,6 +400,9 @@
           <t>Молочная продукция</t>
         </is>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -404,6 +415,9 @@
           <t>Молочная продукция</t>
         </is>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -416,6 +430,9 @@
           <t>Молочная продукция</t>
         </is>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -428,6 +445,9 @@
           <t>Молочная продукция</t>
         </is>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -440,6 +460,9 @@
           <t>Молочная продукция</t>
         </is>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -452,6 +475,9 @@
           <t>Молочная продукция</t>
         </is>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -464,6 +490,9 @@
           <t>Молочная продукция</t>
         </is>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -476,6 +505,9 @@
           <t>Напитки</t>
         </is>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -488,6 +520,9 @@
           <t>Напитки</t>
         </is>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -500,6 +535,9 @@
           <t>Напитки</t>
         </is>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -512,6 +550,9 @@
           <t>Напитки</t>
         </is>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -521,8 +562,86 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Прочее, непродовольственное</t>
-        </is>
+          <t>Непродовольственные товары</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Одежда.RData</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Непродовольственные товары</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Шины и покрышки.RData</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Непродовольственные товары</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Парфюмерная продукция.RData</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Непродовольственные товары</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Изделия из меха.RData</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Непродовольственные товары</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Обувь.RData</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Непродовольственные товары</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
